--- a/2025-BBTANAUAN/02 - Coronation/Sheets/JUDGE 5/04 - QnA 10.xlsx
+++ b/2025-BBTANAUAN/02 - Coronation/Sheets/JUDGE 5/04 - QnA 10.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F4E09B-CE41-474C-8851-F8CF6EADACF4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAE08A4-FEB9-4CEA-833C-734085965461}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,14 +37,13 @@
     <t>TOP 10 Q&amp;A COMPETITION</t>
   </si>
   <si>
-    <t>Requires a minimum total score of 75.00 per candidate.
-This will be added with last round's score</t>
-  </si>
-  <si>
     <t>Beauty and Personality</t>
   </si>
   <si>
     <t>Intelligence</t>
+  </si>
+  <si>
+    <t>Requires a minimum total score of 75.00 per candidate.</t>
   </si>
 </sst>
 </file>
@@ -381,19 +380,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -957,15 +956,15 @@
       <c r="F4" s="25"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="B5" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -979,26 +978,26 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>6</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>7</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="28" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="28"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="9">
         <v>60</v>
       </c>
@@ -1009,7 +1008,7 @@
         <f>SUM(C8:D8)</f>
         <v>100</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1198,7 +1197,7 @@
     <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="a35YMbeY43aJn4FQEJ8BYIadLUO/v84WZevsOA6EBH1D70w7bse7ww7g6Q5tdezfXHeTalqM6+tYAlk0vR/cnA==" saltValue="Pupdo53s6IkK2cI4XFBSXw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="r+l7uBFR/aGEi01MCrZxh1YZkQDeLlF5y8AQRWpBaT8uXHwnP6AkzbUj5tGSt3QWE6lRCfvKheQs/5KwQhpoTg==" saltValue="r/wojqrbPVuqtWXslS55Rg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="2T+Q/wRgqGxUmTdOjaByOdxfFWBYxb8g6wYcLkBSXaxGGPCA3o1f7vUoH/9A9gr9MnIEIpMYpXa9yMXxy+wZHQ==" saltValue="kfrkI+iRtCnlNuDjxamApQ==" spinCount="100000" sqref="B9:B18" name="NAMES"/>
     <protectedRange sqref="C9:D18" name="SCOREBOARD"/>
